--- a/data/case1/11/Q1_2.xlsx
+++ b/data/case1/11/Q1_2.xlsx
@@ -56,172 +56,172 @@
   <dimension ref="A1:A33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.2407032700537286</v>
+        <v>0.20264560746247184</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999368578472</v>
+        <v>-0.057644320437837848</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.041489772135630432</v>
+        <v>-0.0039999999827529109</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999998979172204</v>
+        <v>-0.0079999999682023315</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999434489055</v>
+        <v>-0.002999999983220647</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999433721882</v>
+        <v>-0.0019999999834272586</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999998635564857</v>
+        <v>-0.0099999999572650822</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999998607125384</v>
+        <v>0.0026423739155467807</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999390671874</v>
+        <v>-0.0019999999829685144</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999378246258</v>
+        <v>-0.0019999999827344794</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999276402178</v>
+        <v>-0.0029999999794512178</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999224298861</v>
+        <v>-0.0034999999778393409</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.011819545660403996</v>
+        <v>-0.0034999999781257785</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999998768061076</v>
+        <v>-0.0079999999636273245</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999994622823607</v>
+        <v>0.020193375024809335</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999355442277</v>
+        <v>-0.0019999999834552362</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999348918607</v>
+        <v>-0.0019999999831137316</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999145789999</v>
+        <v>-0.0039999999764495087</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.050153270889083057</v>
+        <v>-0.003999999985934366</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999522635221</v>
+        <v>-0.0039999999849467116</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999517332796</v>
+        <v>-0.0039999999847735168</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.003999999951297184</v>
+        <v>-0.0039999999846420664</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999289456198</v>
+        <v>-0.0049999999783354454</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999772446486</v>
+        <v>-0.019999999927158285</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999769152232</v>
+        <v>-0.019999999926148426</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999396140282</v>
+        <v>-0.002499999981363743</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999386503546</v>
+        <v>-0.0024999999807668871</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999386044465</v>
+        <v>-0.0019999999798177015</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.056219395308466424</v>
+        <v>-0.0069999999615575348</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999348316901</v>
+        <v>-0.059999999787059277</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.006999999873785967</v>
+        <v>0.042229998377326439</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.009999999843177676</v>
+        <v>-0.0099999999522566441</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999029820543</v>
+        <v>-0.0039999999718425272</v>
       </c>
     </row>
   </sheetData>
